--- a/Heart_Data_Nets.xlsx
+++ b/Heart_Data_Nets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>No of hidden units</t>
   </si>
@@ -63,15 +63,42 @@
   </si>
   <si>
     <t>#best possible sigma</t>
+  </si>
+  <si>
+    <t>SparseAutoencoderSoftmaxReg</t>
+  </si>
+  <si>
+    <t>Examples in unlabeled set 152</t>
+  </si>
+  <si>
+    <t>Examples in supervised training set 72</t>
+  </si>
+  <si>
+    <t>Examples in supervised testing set 73</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stacked AutoEncoders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">give poor results</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -145,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +195,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -188,15 +223,15 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.7704081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7142857142857"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.8265306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.2704081632653"/>
@@ -294,15 +329,115 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.8493</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.8082</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.8219</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.8082</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
